--- a/Mifos Automation Excels/Client/3535-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-NONE-AllRepayment-Createclient.xlsx
+++ b/Mifos Automation Excels/Client/3535-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-NONE-AllRepayment-Createclient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>lastname</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>verifyclient</t>
+  </si>
+  <si>
+    <t>clickonsubmit</t>
+  </si>
+  <si>
+    <t>Click</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -472,6 +478,14 @@
       </c>
       <c r="B5" s="7">
         <v>41913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
